--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61206.8056719325</v>
+        <v>12081889.85543388</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61206.8056719325</v>
+        <v>12081889.85543388</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19696.88092059332</v>
+        <v>2710652.257722858</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19696.88092059332</v>
+        <v>2710652.257722858</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419771240.653001</v>
+        <v>57714145.73970064</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12678.68903738649</v>
+        <v>1429437.314767705</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23666.16415413679</v>
+        <v>2593655.765553068</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34653.63927088708</v>
+        <v>3757874.216338433</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45910.74755700235</v>
+        <v>4842295.637683488</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57072.2064629986</v>
+        <v>6014269.84672582</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68110.31162874555</v>
+        <v>7179081.145970871</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79132.39918182747</v>
+        <v>8344297.899566401</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90152.93684974163</v>
+        <v>9509221.661874047</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101677.6259427153</v>
+        <v>10517278.66650156</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>113123.7126839775</v>
+        <v>11595463.42354572</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124528.3681534693</v>
+        <v>12666082.3425622</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135933.023622961</v>
+        <v>13736701.2615787</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147337.6790924528</v>
+        <v>14807320.18059519</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>158961.3295025562</v>
+        <v>15836951.17256966</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>171578.187877452</v>
+        <v>16669168.88373769</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>333</v>
@@ -27058,7 +27058,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>256</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>420</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
